--- a/server/excels/invoiceContractor.xlsx
+++ b/server/excels/invoiceContractor.xlsx
@@ -19,99 +19,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
-  <si>
-    <t xml:space="preserve"> استان</t>
-  </si>
-  <si>
-    <t>شهرک</t>
-  </si>
-  <si>
-    <t>عنوان پیمان</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>شماره پیمان</t>
   </si>
   <si>
-    <t>نوع پیمان</t>
-  </si>
-  <si>
-    <t>شرکت</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> مبلغ اولیه (ریال)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> مبلغ پیمان با احتساب تغییر مقادیر  (سند)</t>
-  </si>
-  <si>
-    <t>شماره تغییر مقادیر</t>
-  </si>
-  <si>
-    <t>شماره صورت وضعیت فعلی</t>
-  </si>
-  <si>
-    <t>تاریخ شروع دوره کارکرد</t>
-  </si>
-  <si>
-    <t>تاریخ پایان دوره کارکرد</t>
-  </si>
-  <si>
-    <t>مبلغ تجمعی تأیید مدیر طرح</t>
-  </si>
-  <si>
-    <t>کارکرد دوره</t>
-  </si>
-  <si>
-    <t>مبلغ قابل تایید دفتر فنی کارفرما</t>
-  </si>
-  <si>
-    <t>مبلغ قابل پرداخت در دوره</t>
-  </si>
-  <si>
-    <t>مبلغ قابل پرداخت تجمعی</t>
-  </si>
-  <si>
-    <t>صورت وضعیت تایید مدیر طرح -فیلد تاریخ نامه مدیر شعبه</t>
-  </si>
-  <si>
-    <t>صورت وضعیت تایید مدیر طرح -تاریخ نامه مدیر طرح به معاون فنی</t>
-  </si>
-  <si>
-    <t>صورت وضعیت تایید دفتر فنی - فیلد تاریخ تأیید دفتر فنی کارفرما</t>
-  </si>
-  <si>
     <t>تاریخ نامه دریافت از دبیرخانه</t>
   </si>
   <si>
-    <t>تاریخ سند پرداخت</t>
-  </si>
-  <si>
-    <t>صورت وضعیت تایید مدیر طرح - فیلد شماره نامه مدیر شعبه</t>
-  </si>
-  <si>
-    <t>صورت وضعیت تایید مدیر طرح - شماره نامه مدیر طرح</t>
-  </si>
-  <si>
-    <t>شماره نامه دفتر فنی کارفرما</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> نوع پرداخت</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> تاریخ سر رسید اسناد</t>
-  </si>
-  <si>
-    <t>گزارش عملیات اجرایی-( طبق فرمول : پیشرفت پیمان برابر مقدار مجموع پیشرفت هر یک از فعالیت های ساختار شکست.  که پیشرفت هر فعالیت براساس فرمول مقدار عملکرد تجمعی تا کنون تقسیم بر مقدار کل ضرب در وزن آن آیتم در ساختار شکست حاصل می گردد.)</t>
-  </si>
-  <si>
-    <t>مبلغ ص و تایید شده تقسیم بر  مبلغ بر اساس آخرین تغییر مقادیر(سند)</t>
-  </si>
-  <si>
-    <t>مبلغ ص و تایید شده  کارفرما تقسیم بر  مبلغ بر اساس آخرین تغییر مقادیر(سند)</t>
-  </si>
-  <si>
-    <t>مبلغ ص و پرداخت شده تقسیم بر مبلغ بر اساس آخرین تغییر مقادیر(سند)</t>
+    <t>استان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شهرک </t>
+  </si>
+  <si>
+    <t xml:space="preserve">عنوان </t>
+  </si>
+  <si>
+    <t>نوع</t>
+  </si>
+  <si>
+    <t>نام شرکت</t>
+  </si>
+  <si>
+    <t>مبلغ اولیه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مبلغ بر اساس آخرین تغییر مقادیر </t>
+  </si>
+  <si>
+    <t>شماره اخرین تغییر مقادیر</t>
+  </si>
+  <si>
+    <t>شماره صورت وضعیت تایید شده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شروع دوره کارکرد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">پایان دوره کارکرد </t>
+  </si>
+  <si>
+    <t>مبلغ تجمعی تایید شده مدیر طرح</t>
+  </si>
+  <si>
+    <t>کارکرد دوره مدیر طرح</t>
+  </si>
+  <si>
+    <t>کارکرد دوره-کارفرما</t>
+  </si>
+  <si>
+    <t>مبلغ  پرداخت شده-تجمعی</t>
+  </si>
+  <si>
+    <t>مبلغ پرداخت شده-دوره</t>
+  </si>
+  <si>
+    <t>تاریخ تأیید مدیر شعبه</t>
+  </si>
+  <si>
+    <t>تاریخ تأیید مدیر طرح</t>
+  </si>
+  <si>
+    <t>تاریخ تأیید کارفرما</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاریخ  پرداخت </t>
+  </si>
+  <si>
+    <t>شماره نامه مدیر شعبه</t>
+  </si>
+  <si>
+    <t>شماره نامه مدیر طرح</t>
+  </si>
+  <si>
+    <t>شماره نامه کارفرما</t>
+  </si>
+  <si>
+    <t>نوع پرداخت</t>
+  </si>
+  <si>
+    <t>تاریخ سررسید اسناد</t>
+  </si>
+  <si>
+    <t>درصد پیشرفت فیزیکی</t>
+  </si>
+  <si>
+    <t>درصد پیشرفت ریالی تایید شده کارفرما</t>
+  </si>
+  <si>
+    <t>درصد پیشرفت ریالی پرداخت شده</t>
+  </si>
+  <si>
+    <t>درصد پیشرفت ریالی تأیید مدیر طرح</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مبلغ قابل تأیید دفتر فنی کارفرما</t>
   </si>
 </sst>
 </file>
@@ -127,20 +130,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="B Nazanin"/>
-      <charset val="178"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,19 +153,20 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <gradientFill degree="45">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="0.5">
+          <color theme="7" tint="0.40000610370189521"/>
+        </stop>
+        <stop position="1">
+          <color theme="0"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -169,61 +175,95 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="dashDotDot">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color indexed="64"/>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
       </right>
-      <top style="hair">
+      <top style="dashDotDot">
         <color indexed="64"/>
       </top>
-      <bottom style="dashDotDot">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDotDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
       </left>
       <right style="dashDotDot">
         <color indexed="64"/>
       </right>
-      <top style="hair">
+      <top style="dashDotDot">
         <color indexed="64"/>
       </top>
-      <bottom style="dashDotDot">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -503,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="K1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,102 +552,102 @@
     <col min="29" max="29" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="5" customFormat="1" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
